--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448673333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N2">
-        <v>0.434602</v>
+        <v>0.335025</v>
       </c>
       <c r="O2">
-        <v>0.03218399861311745</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P2">
-        <v>0.03218399861311746</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q2">
-        <v>8.959269574722443</v>
+        <v>7.423813837949998</v>
       </c>
       <c r="R2">
-        <v>80.633426172502</v>
+        <v>66.81432454154999</v>
       </c>
       <c r="S2">
-        <v>0.001014820762126293</v>
+        <v>0.001193451450784502</v>
       </c>
       <c r="T2">
-        <v>0.001014820762126293</v>
+        <v>0.001193451450784501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.759566</v>
       </c>
       <c r="O3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q3">
-        <v>139.3476652250296</v>
+        <v>149.7851193473213</v>
       </c>
       <c r="R3">
-        <v>1254.128987025266</v>
+        <v>1348.066074125892</v>
       </c>
       <c r="S3">
-        <v>0.01578397687945058</v>
+        <v>0.02407943839824966</v>
       </c>
       <c r="T3">
-        <v>0.01578397687945058</v>
+        <v>0.02407943839824965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002935666666666666</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N4">
-        <v>0.008806999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O4">
-        <v>0.0006521932153688326</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P4">
-        <v>0.0006521932153688327</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q4">
-        <v>0.1815552784952222</v>
+        <v>1.036464348798667</v>
       </c>
       <c r="R4">
-        <v>1.633997506457</v>
+        <v>9.328179139188</v>
       </c>
       <c r="S4">
-        <v>2.056485347984194E-05</v>
+        <v>0.0001666218883933864</v>
       </c>
       <c r="T4">
-        <v>2.056485347984193E-05</v>
+        <v>0.0001666218883933864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096925333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N5">
-        <v>6.290775999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q5">
-        <v>129.6836140151084</v>
+        <v>109.979672128462</v>
       </c>
       <c r="R5">
-        <v>1167.152526135976</v>
+        <v>989.817049156158</v>
       </c>
       <c r="S5">
-        <v>0.01468932516345023</v>
+        <v>0.01768031932421968</v>
       </c>
       <c r="T5">
-        <v>0.01468932516345022</v>
+        <v>0.01768031932421967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>1361.379069</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>4084.137207</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003305333333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N6">
-        <v>0.009915999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q6">
-        <v>0.2044171842351111</v>
+        <v>152.032007530575</v>
       </c>
       <c r="R6">
-        <v>1.839754658116</v>
+        <v>1368.288067775175</v>
       </c>
       <c r="S6">
-        <v>2.315443250892616E-05</v>
+        <v>0.0244406478817562</v>
       </c>
       <c r="T6">
-        <v>2.315443250892615E-05</v>
+        <v>0.0244406478817562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1448673333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N7">
-        <v>0.434602</v>
+        <v>6.759566</v>
       </c>
       <c r="O7">
-        <v>0.03218399861311745</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P7">
-        <v>0.03218399861311746</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q7">
-        <v>197.219355381846</v>
+        <v>3067.443889308017</v>
       </c>
       <c r="R7">
-        <v>1774.974198436614</v>
+        <v>27606.99500377216</v>
       </c>
       <c r="S7">
-        <v>0.02233913098221085</v>
+        <v>0.4931219235564248</v>
       </c>
       <c r="T7">
-        <v>0.02233913098221086</v>
+        <v>0.4931219235564248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.253188666666667</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N8">
-        <v>6.759566</v>
+        <v>0.046774</v>
       </c>
       <c r="O8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q8">
-        <v>3067.443889308018</v>
+        <v>21.225714857802</v>
       </c>
       <c r="R8">
-        <v>27606.99500377216</v>
+        <v>191.031433720218</v>
       </c>
       <c r="S8">
-        <v>0.3474508406700824</v>
+        <v>0.003412243456521945</v>
       </c>
       <c r="T8">
-        <v>0.3474508406700824</v>
+        <v>0.003412243456521945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002935666666666666</v>
+        <v>1.654403</v>
       </c>
       <c r="N9">
-        <v>0.008806999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O9">
-        <v>0.0006521932153688326</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P9">
-        <v>0.0006521932153688327</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q9">
-        <v>3.996555153560999</v>
+        <v>2252.269615890807</v>
       </c>
       <c r="R9">
-        <v>35.96899638204899</v>
+        <v>20270.42654301726</v>
       </c>
       <c r="S9">
-        <v>0.0004526917192289289</v>
+        <v>0.3620746019925776</v>
       </c>
       <c r="T9">
-        <v>0.000452691719228929</v>
+        <v>0.3620746019925776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.379069</v>
+        <v>44.831112</v>
       </c>
       <c r="H10">
-        <v>4084.137207</v>
+        <v>134.493336</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.096925333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N10">
-        <v>6.290775999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q10">
-        <v>2854.710258055847</v>
+        <v>5.006514432599999</v>
       </c>
       <c r="R10">
-        <v>25692.39232250263</v>
+        <v>45.0586298934</v>
       </c>
       <c r="S10">
-        <v>0.3233544002184722</v>
+        <v>0.00080484667899619</v>
       </c>
       <c r="T10">
-        <v>0.3233544002184723</v>
+        <v>0.0008048466789961898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.379069</v>
+        <v>44.831112</v>
       </c>
       <c r="H11">
-        <v>4084.137207</v>
+        <v>134.493336</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.003305333333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N11">
-        <v>0.009915999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q11">
-        <v>4.499811616068</v>
+        <v>101.012953472464</v>
       </c>
       <c r="R11">
-        <v>40.498304544612</v>
+        <v>909.1165812521759</v>
       </c>
       <c r="S11">
-        <v>0.000509695820128768</v>
+        <v>0.01623883067399615</v>
       </c>
       <c r="T11">
-        <v>0.0005096958201287681</v>
+        <v>0.01623883067399615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1448673333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N12">
-        <v>0.434602</v>
+        <v>0.046774</v>
       </c>
       <c r="O12">
-        <v>0.03218399861311745</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P12">
-        <v>0.03218399861311746</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q12">
-        <v>36.36271676614266</v>
+        <v>0.6989768108959999</v>
       </c>
       <c r="R12">
-        <v>327.264450895284</v>
+        <v>6.290791298064001</v>
       </c>
       <c r="S12">
-        <v>0.004118822369818317</v>
+        <v>0.0001123674309778906</v>
       </c>
       <c r="T12">
-        <v>0.004118822369818317</v>
+        <v>0.0001123674309778906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.253188666666667</v>
+        <v>1.654403</v>
       </c>
       <c r="N13">
-        <v>6.759566</v>
+        <v>4.963209</v>
       </c>
       <c r="O13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q13">
-        <v>565.5661591986413</v>
+        <v>74.168726186136</v>
       </c>
       <c r="R13">
-        <v>5090.095432787772</v>
+        <v>667.518535675224</v>
       </c>
       <c r="S13">
-        <v>0.06406195013153031</v>
+        <v>0.01192335581169764</v>
       </c>
       <c r="T13">
-        <v>0.06406195013153029</v>
+        <v>0.01192335581169764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>158.491863</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002935666666666666</v>
+        <v>0.111675</v>
       </c>
       <c r="N14">
-        <v>0.008806999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O14">
-        <v>0.0006521932153688326</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P14">
-        <v>0.0006521932153688327</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q14">
-        <v>0.7368729240993332</v>
+        <v>5.899859600175</v>
       </c>
       <c r="R14">
-        <v>6.631856316893999</v>
+        <v>53.098736401575</v>
       </c>
       <c r="S14">
-        <v>8.346594956072434E-05</v>
+        <v>0.0009484607444302605</v>
       </c>
       <c r="T14">
-        <v>8.346594956072434E-05</v>
+        <v>0.0009484607444302603</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>158.491863</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,43 +1364,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.096925333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N15">
-        <v>6.290775999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q15">
-        <v>526.3429665009546</v>
+        <v>119.037356490162</v>
       </c>
       <c r="R15">
-        <v>4737.086698508591</v>
+        <v>1071.336208411458</v>
       </c>
       <c r="S15">
-        <v>0.05961912028089193</v>
+        <v>0.01913643161073197</v>
       </c>
       <c r="T15">
-        <v>0.05961912028089193</v>
+        <v>0.01913643161073197</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>158.491863</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.003305333333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N16">
-        <v>0.009915999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q16">
-        <v>0.8296618502746667</v>
+        <v>0.8236998222180002</v>
       </c>
       <c r="R16">
-        <v>7.466956652472</v>
+        <v>7.413298399962001</v>
       </c>
       <c r="S16">
-        <v>9.397619573568101E-05</v>
+        <v>0.0001324178877993613</v>
       </c>
       <c r="T16">
-        <v>9.3976195735681E-05</v>
+        <v>0.0001324178877993613</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1448673333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N17">
-        <v>0.434602</v>
+        <v>4.963209</v>
       </c>
       <c r="O17">
-        <v>0.03218399861311745</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P17">
-        <v>0.03218399861311746</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q17">
-        <v>3.922620494308443</v>
+        <v>87.40313787426301</v>
       </c>
       <c r="R17">
-        <v>35.30358444877599</v>
+        <v>786.6282408683671</v>
       </c>
       <c r="S17">
-        <v>0.0004443171049119409</v>
+        <v>0.01405091829834481</v>
       </c>
       <c r="T17">
-        <v>0.0004443171049119409</v>
+        <v>0.01405091829834481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>48.484843</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.253188666666667</v>
+        <v>0.111675</v>
       </c>
       <c r="N18">
-        <v>6.759566</v>
+        <v>0.335025</v>
       </c>
       <c r="O18">
-        <v>0.5005726222366118</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P18">
-        <v>0.5005726222366118</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q18">
-        <v>61.01033157746755</v>
+        <v>1.804848280675</v>
       </c>
       <c r="R18">
-        <v>549.0929841972079</v>
+        <v>16.243634526075</v>
       </c>
       <c r="S18">
-        <v>0.006910669521956157</v>
+        <v>0.0002901472000828477</v>
       </c>
       <c r="T18">
-        <v>0.006910669521956157</v>
+        <v>0.0002901472000828477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>48.484843</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.002935666666666666</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N19">
-        <v>0.008806999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O19">
-        <v>0.0006521932153688326</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P19">
-        <v>0.0006521932153688327</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q19">
-        <v>0.0794900131462222</v>
+        <v>36.41516625090422</v>
       </c>
       <c r="R19">
-        <v>0.7154101183159998</v>
+        <v>327.7364962581379</v>
       </c>
       <c r="S19">
-        <v>9.003871917201169E-06</v>
+        <v>0.00585409789918727</v>
       </c>
       <c r="T19">
-        <v>9.003871917201171E-06</v>
+        <v>0.005854097899187269</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,61 +1656,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>48.484843</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>2.096925333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N20">
-        <v>6.290775999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O20">
-        <v>0.4658568668791965</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P20">
-        <v>0.4658568668791965</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q20">
-        <v>56.77913783807642</v>
+        <v>0.2519811162757778</v>
       </c>
       <c r="R20">
-        <v>511.0122405426878</v>
+        <v>2.267830046482</v>
       </c>
       <c r="S20">
-        <v>0.006431400177563655</v>
+        <v>4.050845500089583E-05</v>
       </c>
       <c r="T20">
-        <v>0.006431400177563655</v>
+        <v>4.050845500089582E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>48.484843</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.003305333333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N21">
-        <v>0.009915999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O21">
-        <v>0.0007343190557053872</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P21">
-        <v>0.0007343190557053872</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q21">
-        <v>0.0894995992231111</v>
+        <v>26.73782323790967</v>
       </c>
       <c r="R21">
-        <v>0.8054963930079998</v>
+        <v>240.640409141187</v>
       </c>
       <c r="S21">
-        <v>1.0137662533322E-05</v>
+        <v>0.004298369359826851</v>
       </c>
       <c r="T21">
-        <v>1.0137662533322E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>260.0315303333334</v>
-      </c>
-      <c r="H22">
-        <v>780.094591</v>
-      </c>
-      <c r="I22">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="J22">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1448673333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.434602</v>
-      </c>
-      <c r="O22">
-        <v>0.03218399861311745</v>
-      </c>
-      <c r="P22">
-        <v>0.03218399861311746</v>
-      </c>
-      <c r="Q22">
-        <v>37.67007438197578</v>
-      </c>
-      <c r="R22">
-        <v>339.030669437782</v>
-      </c>
-      <c r="S22">
-        <v>0.004266907394050047</v>
-      </c>
-      <c r="T22">
-        <v>0.004266907394050048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>260.0315303333334</v>
-      </c>
-      <c r="H23">
-        <v>780.094591</v>
-      </c>
-      <c r="I23">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="J23">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.253188666666667</v>
-      </c>
-      <c r="N23">
-        <v>6.759566</v>
-      </c>
-      <c r="O23">
-        <v>0.5005726222366118</v>
-      </c>
-      <c r="P23">
-        <v>0.5005726222366118</v>
-      </c>
-      <c r="Q23">
-        <v>585.9000971230564</v>
-      </c>
-      <c r="R23">
-        <v>5273.100874107507</v>
-      </c>
-      <c r="S23">
-        <v>0.06636518503359237</v>
-      </c>
-      <c r="T23">
-        <v>0.06636518503359237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>260.0315303333334</v>
-      </c>
-      <c r="H24">
-        <v>780.094591</v>
-      </c>
-      <c r="I24">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="J24">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.002935666666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.008806999999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.0006521932153688326</v>
-      </c>
-      <c r="P24">
-        <v>0.0006521932153688327</v>
-      </c>
-      <c r="Q24">
-        <v>0.7633658958818889</v>
-      </c>
-      <c r="R24">
-        <v>6.870293062937</v>
-      </c>
-      <c r="S24">
-        <v>8.646682118213621E-05</v>
-      </c>
-      <c r="T24">
-        <v>8.646682118213623E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>260.0315303333334</v>
-      </c>
-      <c r="H25">
-        <v>780.094591</v>
-      </c>
-      <c r="I25">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="J25">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.096925333333333</v>
-      </c>
-      <c r="N25">
-        <v>6.290775999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.4658568668791965</v>
-      </c>
-      <c r="P25">
-        <v>0.4658568668791965</v>
-      </c>
-      <c r="Q25">
-        <v>545.2667034214018</v>
-      </c>
-      <c r="R25">
-        <v>4907.400330792616</v>
-      </c>
-      <c r="S25">
-        <v>0.06176262103881846</v>
-      </c>
-      <c r="T25">
-        <v>0.06176262103881846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>260.0315303333334</v>
-      </c>
-      <c r="H26">
-        <v>780.094591</v>
-      </c>
-      <c r="I26">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="J26">
-        <v>0.1325785352324417</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.003305333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.009915999999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.0007343190557053872</v>
-      </c>
-      <c r="P26">
-        <v>0.0007343190557053872</v>
-      </c>
-      <c r="Q26">
-        <v>0.8594908849284445</v>
-      </c>
-      <c r="R26">
-        <v>7.735417964356</v>
-      </c>
-      <c r="S26">
-        <v>9.735494479869E-05</v>
-      </c>
-      <c r="T26">
-        <v>9.735494479869E-05</v>
+        <v>0.004298369359826851</v>
       </c>
     </row>
   </sheetData>
